--- a/words/words_material.xlsx
+++ b/words/words_material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/hagars1_mail_tau_ac_il/Documents/Desktop/Stage/LPC_2022/words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{42271425-B849-4C87-80E0-AF9F2D5DB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F129AF60-5237-41A9-84A5-93DB45A593B0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{42271425-B849-4C87-80E0-AF9F2D5DB079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB37B72-2D2B-4B9D-88FF-0B119BAAF5C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words_with_code" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="1205">
   <si>
     <t>rounding</t>
   </si>
@@ -3282,81 +3282,51 @@
     <t>2 low</t>
   </si>
   <si>
-    <t>lipt</t>
-  </si>
-  <si>
     <t>lypte</t>
   </si>
   <si>
     <t>kyste</t>
   </si>
   <si>
-    <t>plap</t>
-  </si>
-  <si>
     <t>plape</t>
   </si>
   <si>
     <t>stase</t>
   </si>
   <si>
-    <t>mEpt</t>
-  </si>
-  <si>
     <t>mepte</t>
   </si>
   <si>
     <t>CCVCC</t>
   </si>
   <si>
-    <t>blen</t>
-  </si>
-  <si>
     <t>blֳ¨ne</t>
   </si>
   <si>
     <t>djinn</t>
   </si>
   <si>
-    <t>plOS</t>
-  </si>
-  <si>
     <t>glac</t>
   </si>
   <si>
     <t>ploc</t>
   </si>
   <si>
-    <t>gRiS</t>
-  </si>
-  <si>
     <t>gliche</t>
   </si>
   <si>
-    <t>smOp</t>
-  </si>
-  <si>
     <t>smope</t>
   </si>
   <si>
-    <t>pSat</t>
-  </si>
-  <si>
     <t>grane</t>
   </si>
   <si>
     <t>gratte</t>
   </si>
   <si>
-    <t>smni</t>
-  </si>
-  <si>
     <t>scri</t>
   </si>
   <si>
-    <t>glyk</t>
-  </si>
-  <si>
     <t>lupe</t>
   </si>
   <si>
@@ -3366,159 +3336,102 @@
     <t>2 high</t>
   </si>
   <si>
-    <t>balm</t>
-  </si>
-  <si>
     <t>calte</t>
   </si>
   <si>
-    <t>valk</t>
-  </si>
-  <si>
     <t>valque</t>
   </si>
   <si>
     <t>masque</t>
   </si>
   <si>
-    <t>kRal</t>
-  </si>
-  <si>
     <t>crֳ¢le</t>
   </si>
   <si>
     <t>grֳ¢ce</t>
   </si>
   <si>
-    <t>katR</t>
-  </si>
-  <si>
     <t>caֳ®ttre</t>
   </si>
   <si>
     <t>mֳ¨tre</t>
   </si>
   <si>
-    <t>palZ</t>
-  </si>
-  <si>
     <t>palge</t>
   </si>
   <si>
-    <t>lEtR</t>
-  </si>
-  <si>
     <t>ligront</t>
   </si>
   <si>
     <t>naֳ®tre</t>
   </si>
   <si>
-    <t>muRs</t>
-  </si>
-  <si>
     <t>mource</t>
   </si>
   <si>
     <t>CCVCCVV</t>
   </si>
   <si>
-    <t>dRil5g</t>
-  </si>
-  <si>
     <t>trigue</t>
   </si>
   <si>
     <t>fringue</t>
   </si>
   <si>
-    <t>gERt</t>
-  </si>
-  <si>
     <t>gerte</t>
   </si>
   <si>
-    <t>dR5g</t>
-  </si>
-  <si>
     <t>dringe</t>
   </si>
   <si>
     <t>1 low</t>
   </si>
   <si>
-    <t>kymyb</t>
-  </si>
-  <si>
     <t>cumube</t>
   </si>
   <si>
     <t>succube</t>
   </si>
   <si>
-    <t>pirin</t>
-  </si>
-  <si>
     <t>pirine</t>
   </si>
   <si>
     <t>viking</t>
   </si>
   <si>
-    <t>mogys</t>
-  </si>
-  <si>
     <t>nogus</t>
   </si>
   <si>
     <t>lotus</t>
   </si>
   <si>
-    <t>bolik</t>
-  </si>
-  <si>
     <t>bollique</t>
   </si>
   <si>
     <t>sonique</t>
   </si>
   <si>
-    <t>maRbe</t>
-  </si>
-  <si>
     <t>marbant</t>
   </si>
   <si>
     <t>charmֳ©</t>
   </si>
   <si>
-    <t>gERt@</t>
-  </si>
-  <si>
     <t>gertant</t>
   </si>
   <si>
-    <t>moSOn</t>
-  </si>
-  <si>
     <t>mochonne</t>
   </si>
   <si>
     <t>bobonne</t>
   </si>
   <si>
-    <t>faRm@</t>
-  </si>
-  <si>
     <t>farmant</t>
   </si>
   <si>
     <t>barbant</t>
   </si>
   <si>
-    <t>goliS</t>
-  </si>
-  <si>
     <t>goliche</t>
   </si>
   <si>
@@ -3528,9 +3441,6 @@
     <t>CVVCVVCV</t>
   </si>
   <si>
-    <t>buklun</t>
-  </si>
-  <si>
     <t>boucloune</t>
   </si>
   <si>
@@ -3540,78 +3450,51 @@
     <t>1 high</t>
   </si>
   <si>
-    <t>sakiR</t>
-  </si>
-  <si>
     <t>dacir</t>
   </si>
   <si>
     <t>salir</t>
   </si>
   <si>
-    <t>kalmo</t>
-  </si>
-  <si>
     <t>calmeau</t>
   </si>
   <si>
     <t>vogal</t>
   </si>
   <si>
-    <t>kuSne</t>
-  </si>
-  <si>
     <t>coulter</t>
   </si>
   <si>
-    <t>nelage</t>
-  </si>
-  <si>
     <t>nellage</t>
   </si>
   <si>
     <t>mֳ©nage</t>
   </si>
   <si>
-    <t>giral</t>
-  </si>
-  <si>
     <t>guiral</t>
   </si>
   <si>
     <t>final</t>
   </si>
   <si>
-    <t>seniR</t>
-  </si>
-  <si>
     <t>gainir</t>
   </si>
   <si>
     <t>saisir</t>
   </si>
   <si>
-    <t>magyR</t>
-  </si>
-  <si>
     <t>magure</t>
   </si>
   <si>
     <t>nature</t>
   </si>
   <si>
-    <t>genim</t>
-  </si>
-  <si>
     <t>gֳ©nime</t>
   </si>
   <si>
     <t>rֳ©gime</t>
   </si>
   <si>
-    <t>keSiR</t>
-  </si>
-  <si>
     <t>cochir</t>
   </si>
   <si>
@@ -3621,18 +3504,12 @@
     <t>0 low</t>
   </si>
   <si>
-    <t>manaRi</t>
-  </si>
-  <si>
     <t>manari</t>
   </si>
   <si>
     <t>safari</t>
   </si>
   <si>
-    <t>bireni</t>
-  </si>
-  <si>
     <t>birֳ©nie</t>
   </si>
   <si>
@@ -3642,69 +3519,45 @@
     <t>CVCVCCVCC</t>
   </si>
   <si>
-    <t>lemis@</t>
-  </si>
-  <si>
     <t>lֳ©missant</t>
   </si>
   <si>
     <t>salissant</t>
   </si>
   <si>
-    <t>nigyl@</t>
-  </si>
-  <si>
     <t>nigulent</t>
   </si>
   <si>
     <t>virulent</t>
   </si>
   <si>
-    <t>libote</t>
-  </si>
-  <si>
     <t>lipoter</t>
   </si>
   <si>
-    <t>baSina</t>
-  </si>
-  <si>
     <t>bamina</t>
   </si>
   <si>
     <t>marina</t>
   </si>
   <si>
-    <t>kymane</t>
-  </si>
-  <si>
     <t>cumanֳ©</t>
   </si>
   <si>
     <t>cutanֳ©</t>
   </si>
   <si>
-    <t>farela</t>
-  </si>
-  <si>
     <t>garella</t>
   </si>
   <si>
     <t>favela</t>
   </si>
   <si>
-    <t>tibel5</t>
-  </si>
-  <si>
     <t>ribelain</t>
   </si>
   <si>
     <t>tibֳ©tain</t>
   </si>
   <si>
-    <t>pagiro</t>
-  </si>
-  <si>
     <t>capirot</t>
   </si>
   <si>
@@ -3717,9 +3570,6 @@
     <t>CVCVVCVV</t>
   </si>
   <si>
-    <t>maluzi</t>
-  </si>
-  <si>
     <t>malosie</t>
   </si>
   <si>
@@ -3729,73 +3579,46 @@
     <t>CVCCVCCVV</t>
   </si>
   <si>
-    <t>kֲ§laNi</t>
-  </si>
-  <si>
     <t>collagnie</t>
   </si>
   <si>
     <t>compagnie</t>
   </si>
   <si>
-    <t>nyteRo</t>
-  </si>
-  <si>
     <t>mutֳ©lo</t>
   </si>
   <si>
     <t>numֳ©ro</t>
   </si>
   <si>
-    <t>vepete</t>
-  </si>
-  <si>
     <t>vֳ©pֳ©ter</t>
   </si>
   <si>
     <t>rֳ©pֳ©ter</t>
   </si>
   <si>
-    <t>deSose</t>
-  </si>
-  <si>
     <t>dֳ©chaser</t>
   </si>
   <si>
     <t>dֳ©poser</t>
   </si>
   <si>
-    <t>merika</t>
-  </si>
-  <si>
     <t>mericat</t>
   </si>
   <si>
     <t>dֳ©licat</t>
   </si>
   <si>
-    <t>labaji</t>
-  </si>
-  <si>
     <t>labajie</t>
   </si>
   <si>
-    <t>RaSis@</t>
-  </si>
-  <si>
     <t>rachissant</t>
   </si>
   <si>
     <t>ravissant</t>
   </si>
   <si>
-    <t>degimne</t>
-  </si>
-  <si>
     <t>degimner</t>
-  </si>
-  <si>
-    <t>balim@</t>
   </si>
   <si>
     <t>baliment</t>
@@ -18447,1775 +18270,1414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03589734-A943-4A78-8882-E83A1ECFF77C}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1197</v>
+      </c>
       <c r="B1" t="s">
-        <v>1256</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>13951</v>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1195</v>
       </c>
       <c r="B2" t="s">
-        <v>1254</v>
+        <v>1194</v>
       </c>
       <c r="C2" t="s">
-        <v>1253</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="G2">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>42529</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3">
+      <c r="D19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>111615</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>84352</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G32" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" t="s">
+        <v>469</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
         <v>78</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>39034</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
+      <c r="G38" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>40892</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+      <c r="G41" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>447</v>
+      </c>
+      <c r="D42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>442</v>
+      </c>
+      <c r="D43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>117421</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>93509</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="G44" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
+      <c r="D45" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>27766</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>79067</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>97546</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>134034</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>60649</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
+      <c r="G45" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>34867</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="G46" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>512</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
+      <c r="D49" t="s">
+        <v>448</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>442</v>
+      </c>
+      <c r="D50" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>6</v>
       </c>
-      <c r="I15" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>85510</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
+      <c r="G50" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>521</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C51" t="s">
+        <v>442</v>
+      </c>
+      <c r="D51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D52" t="s">
+        <v>483</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>141510</v>
-      </c>
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>141207</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>122780</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>140913</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>122480</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
+      <c r="G52" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>570</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C53" t="s">
+        <v>572</v>
+      </c>
+      <c r="D53" t="s">
+        <v>573</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D54" t="s">
+        <v>469</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>6</v>
       </c>
-      <c r="I21" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>13957</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="G54" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>539</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C55" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" t="s">
+        <v>448</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="I22" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>114785</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
+      <c r="G55" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>602</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C56" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" t="s">
+        <v>469</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="I23" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>91800</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E24" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>122632</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>61898</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" t="s">
-        <v>258</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
+      <c r="G56" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C57" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" t="s">
+        <v>447</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>5</v>
       </c>
-      <c r="I26" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>87010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>46204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G58" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>543</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C59" t="s">
+        <v>442</v>
+      </c>
+      <c r="D59" t="s">
         <v>265</v>
       </c>
-      <c r="F28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>82821</v>
-      </c>
-      <c r="B29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="I29" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>131684</v>
-      </c>
-      <c r="B30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G59" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C60" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C61" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" t="s">
         <v>265</v>
       </c>
-      <c r="F30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>122772</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>5</v>
       </c>
-      <c r="I31" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>46275</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E32" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>104651</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>13375</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>16136</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>99697</v>
-      </c>
-      <c r="B36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>265</v>
-      </c>
-      <c r="F36" t="s">
-        <v>287</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>23476</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" t="s">
-        <v>469</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>127060</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>83147</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E39" t="s">
-        <v>258</v>
-      </c>
-      <c r="F39" t="s">
-        <v>258</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>140901</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>129736</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>106532</v>
-      </c>
-      <c r="B42" t="s">
-        <v>527</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>447</v>
-      </c>
-      <c r="F42" t="s">
-        <v>469</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>61069</v>
-      </c>
-      <c r="B43" t="s">
-        <v>494</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E43" t="s">
-        <v>442</v>
-      </c>
-      <c r="F43" t="s">
-        <v>265</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>64689</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>447</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>7</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>17493</v>
-      </c>
-      <c r="B45" t="s">
-        <v>452</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>442</v>
-      </c>
-      <c r="F45" t="s">
-        <v>443</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>91530</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E46" t="s">
-        <v>442</v>
-      </c>
-      <c r="F46" t="s">
-        <v>443</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>81159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>512</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>442</v>
-      </c>
-      <c r="F47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>87736</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>442</v>
-      </c>
-      <c r="F48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>68374</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E49" t="s">
-        <v>447</v>
-      </c>
-      <c r="F49" t="s">
-        <v>448</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>85921</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E50" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" t="s">
-        <v>483</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>20169</v>
-      </c>
-      <c r="B51" t="s">
-        <v>521</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>442</v>
-      </c>
-      <c r="F51" t="s">
-        <v>265</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>80010</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>442</v>
-      </c>
-      <c r="F52" t="s">
-        <v>483</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>129181</v>
-      </c>
-      <c r="B53" t="s">
-        <v>570</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E53" t="s">
-        <v>572</v>
-      </c>
-      <c r="F53" t="s">
-        <v>573</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>68763</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>447</v>
-      </c>
-      <c r="F54" t="s">
-        <v>469</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>6</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>128566</v>
-      </c>
-      <c r="B55" t="s">
-        <v>539</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E55" t="s">
-        <v>447</v>
-      </c>
-      <c r="F55" t="s">
-        <v>448</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>137068</v>
-      </c>
-      <c r="B56" t="s">
-        <v>602</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E56" t="s">
-        <v>447</v>
-      </c>
-      <c r="F56" t="s">
-        <v>469</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>102986</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E57" t="s">
-        <v>447</v>
-      </c>
-      <c r="F57" t="s">
-        <v>447</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>45639</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E58" t="s">
-        <v>447</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>100466</v>
-      </c>
-      <c r="B59" t="s">
-        <v>543</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E59" t="s">
-        <v>442</v>
-      </c>
-      <c r="F59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>128760</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E60" t="s">
-        <v>447</v>
-      </c>
-      <c r="F60" t="s">
-        <v>448</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>80418</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E61" t="s">
-        <v>442</v>
-      </c>
-      <c r="F61" t="s">
-        <v>265</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -20228,7 +19690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC5B93E-ADD2-4CD2-B981-C440AA46F400}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -20728,7 +20190,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>1262</v>
+        <v>1203</v>
       </c>
       <c r="N13" t="s">
         <v>51</v>
@@ -20910,13 +20372,13 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>1258</v>
+        <v>1199</v>
       </c>
       <c r="J20" t="s">
-        <v>1261</v>
+        <v>1202</v>
       </c>
       <c r="K20" t="s">
-        <v>1259</v>
+        <v>1200</v>
       </c>
       <c r="P20" s="2"/>
     </row>
@@ -20928,16 +20390,16 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1257</v>
+        <v>1198</v>
       </c>
       <c r="I21" t="s">
-        <v>1258</v>
+        <v>1199</v>
       </c>
       <c r="J21" t="s">
-        <v>1261</v>
+        <v>1202</v>
       </c>
       <c r="K21" t="s">
-        <v>1260</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.35">
@@ -20951,13 +20413,13 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>1258</v>
+        <v>1199</v>
       </c>
       <c r="J22" t="s">
-        <v>1261</v>
+        <v>1202</v>
       </c>
       <c r="K22" t="s">
-        <v>1263</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
